--- a/public/template_barang.xlsx
+++ b/public/template_barang.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6035AB27-78A9-4012-8685-8862CB8CB0DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F4CA8F3B-2C93-47A3-B362-8964601A0A6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5992C8C9-7DF0-4EC9-B398-976E1CA600B4}"/>
+    <workbookView xWindow="4800" yWindow="2810" windowWidth="14400" windowHeight="7270" xr2:uid="{5992C8C9-7DF0-4EC9-B398-976E1CA600B4}"/>
   </bookViews>
   <sheets>
     <sheet name="m_barang" sheetId="1" r:id="rId1"/>
@@ -36,10 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="16" uniqueCount="16">
-  <si>
-    <t>barang_id</t>
-  </si>
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="9" uniqueCount="9">
   <si>
     <t>kategori_id</t>
   </si>
@@ -56,34 +53,16 @@
     <t>harga_jual</t>
   </si>
   <si>
-    <t>Biskuit Marie</t>
+    <t>FD12</t>
   </si>
   <si>
-    <t>Kabel olor</t>
+    <t>Khong Guan</t>
   </si>
   <si>
-    <t>Celana Kulot</t>
+    <t>FD13</t>
   </si>
   <si>
-    <t>Vitamin c</t>
-  </si>
-  <si>
-    <t>Kemoceng</t>
-  </si>
-  <si>
-    <t>FD11</t>
-  </si>
-  <si>
-    <t>ELC12</t>
-  </si>
-  <si>
-    <t>CLT13</t>
-  </si>
-  <si>
-    <t>DRG14</t>
-  </si>
-  <si>
-    <t>KTR15</t>
+    <t>Chocolatos</t>
   </si>
 </sst>
 </file>
@@ -946,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCFBC9BD-E01D-4EEC-BE0C-D5ECAFA30CF0}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -978,109 +957,40 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>11</v>
-      </c>
-      <c r="B2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
         <v>6</v>
       </c>
+      <c r="D2">
+        <v>55000</v>
+      </c>
       <c r="E2">
-        <v>8000</v>
-      </c>
-      <c r="F2">
-        <v>10000</v>
+        <v>60000</v>
       </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>12000</v>
       </c>
       <c r="E3">
-        <v>25000</v>
-      </c>
-      <c r="F3">
-        <v>30000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4">
-        <v>70000</v>
-      </c>
-      <c r="F4">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5">
-        <v>7000</v>
-      </c>
-      <c r="F5">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6">
         <v>15000</v>
-      </c>
-      <c r="F6">
-        <v>17000</v>
       </c>
     </row>
   </sheetData>
